--- a/cmip6/models/gfdl-am4/cmip6_noaa-gfdl_gfdl-am4_land.xlsx
+++ b/cmip6/models/gfdl-am4/cmip6_noaa-gfdl_gfdl-am4_land.xlsx
@@ -48,7 +48,7 @@
     <t>GFDL-AM4</t>
   </si>
   <si>
-    <t>Topic</t>
+    <t>Realm / Topic</t>
   </si>
   <si>
     <t>Land Surface</t>

--- a/cmip6/models/gfdl-am4/cmip6_noaa-gfdl_gfdl-am4_land.xlsx
+++ b/cmip6/models/gfdl-am4/cmip6_noaa-gfdl_gfdl-am4_land.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1354" uniqueCount="846">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1367" uniqueCount="847">
   <si>
     <t>ES-DOC CMIP6 Model Documentation</t>
   </si>
@@ -1075,6 +1075,9 @@
   </si>
   <si>
     <t>Coupling with snow temperature</t>
+  </si>
+  <si>
+    <t>Other: plant uptake and ground divergence</t>
   </si>
   <si>
     <t>4.1.1</t>
@@ -3223,20 +3226,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>45</v>
@@ -3247,10 +3250,10 @@
         <v>46</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -3258,7 +3261,7 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>56</v>
@@ -3269,10 +3272,10 @@
         <v>46</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
@@ -3285,7 +3288,7 @@
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="B13" s="9" t="s">
         <v>95</v>
@@ -3296,10 +3299,10 @@
         <v>46</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
@@ -3312,7 +3315,7 @@
     </row>
     <row r="18" spans="1:3" ht="24" customHeight="1">
       <c r="A18" s="9" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="B18" s="9" t="s">
         <v>119</v>
@@ -3323,10 +3326,10 @@
         <v>120</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="24" customHeight="1">
@@ -3334,7 +3337,7 @@
     </row>
     <row r="22" spans="1:3" ht="24" customHeight="1">
       <c r="A22" s="9" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="B22" s="9" t="s">
         <v>195</v>
@@ -3345,10 +3348,10 @@
         <v>46</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="24" customHeight="1">
@@ -3371,7 +3374,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD78"/>
+  <dimension ref="A1:XFD79"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3385,20 +3388,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>45</v>
@@ -3409,10 +3412,10 @@
         <v>46</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -3420,7 +3423,7 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>56</v>
@@ -3431,10 +3434,10 @@
         <v>46</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
@@ -3447,7 +3450,7 @@
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="B13" s="9" t="s">
         <v>95</v>
@@ -3458,10 +3461,10 @@
         <v>46</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
@@ -3474,7 +3477,7 @@
     </row>
     <row r="18" spans="1:3" ht="24" customHeight="1">
       <c r="A18" s="9" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="B18" s="9" t="s">
         <v>119</v>
@@ -3485,10 +3488,10 @@
         <v>120</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="24" customHeight="1">
@@ -3496,10 +3499,10 @@
     </row>
     <row r="22" spans="1:3" ht="24" customHeight="1">
       <c r="A22" s="9" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="24" customHeight="1">
@@ -3507,10 +3510,10 @@
         <v>115</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="24" customHeight="1">
@@ -3518,10 +3521,10 @@
     </row>
     <row r="26" spans="1:3" ht="24" customHeight="1">
       <c r="A26" s="9" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="24" customHeight="1">
@@ -3529,10 +3532,10 @@
         <v>46</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="24" customHeight="1">
@@ -3540,10 +3543,10 @@
     </row>
     <row r="30" spans="1:3" ht="24" customHeight="1">
       <c r="A30" s="9" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="24" customHeight="1">
@@ -3551,10 +3554,10 @@
         <v>120</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="24" customHeight="1">
@@ -3564,10 +3567,10 @@
     </row>
     <row r="34" spans="1:29" ht="24" customHeight="1">
       <c r="A34" s="9" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
     </row>
     <row r="35" spans="1:29" ht="24" customHeight="1">
@@ -3575,10 +3578,10 @@
         <v>66</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
     </row>
     <row r="36" spans="1:29" ht="24" customHeight="1">
@@ -3589,10 +3592,10 @@
     <row r="37" spans="1:29" ht="24" customHeight="1">
       <c r="B37" s="11"/>
       <c r="AA37" s="6" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="AB37" s="6" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="AC37" s="6" t="s">
         <v>74</v>
@@ -3600,10 +3603,10 @@
     </row>
     <row r="39" spans="1:29" ht="24" customHeight="1">
       <c r="A39" s="9" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
     </row>
     <row r="40" spans="1:29" ht="24" customHeight="1">
@@ -3611,10 +3614,10 @@
         <v>115</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
     </row>
     <row r="41" spans="1:29" ht="24" customHeight="1">
@@ -3624,10 +3627,10 @@
     </row>
     <row r="43" spans="1:29" ht="24" customHeight="1">
       <c r="A43" s="9" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
     </row>
     <row r="44" spans="1:29" ht="24" customHeight="1">
@@ -3635,10 +3638,10 @@
         <v>46</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
     </row>
     <row r="45" spans="1:29" ht="24" customHeight="1">
@@ -3651,10 +3654,10 @@
     </row>
     <row r="48" spans="1:29" ht="24" customHeight="1">
       <c r="A48" s="9" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
     </row>
     <row r="49" spans="1:30" ht="24" customHeight="1">
@@ -3662,10 +3665,10 @@
         <v>66</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
     </row>
     <row r="50" spans="1:30" ht="24" customHeight="1">
@@ -3676,13 +3679,13 @@
     <row r="51" spans="1:30" ht="24" customHeight="1">
       <c r="B51" s="11"/>
       <c r="AA51" s="6" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="AB51" s="6" t="s">
         <v>69</v>
       </c>
       <c r="AC51" s="6" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="AD51" s="6" t="s">
         <v>74</v>
@@ -3690,10 +3693,10 @@
     </row>
     <row r="53" spans="1:30" ht="24" customHeight="1">
       <c r="A53" s="9" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
     </row>
     <row r="54" spans="1:30" ht="24" customHeight="1">
@@ -3701,21 +3704,21 @@
         <v>66</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
     </row>
     <row r="55" spans="1:30" ht="24" customHeight="1">
       <c r="B55" s="11" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="AA55" s="6" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="AB55" s="6" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="AC55" s="6" t="s">
         <v>74</v>
@@ -3723,10 +3726,10 @@
     </row>
     <row r="57" spans="1:30" ht="24" customHeight="1">
       <c r="A57" s="9" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
     </row>
     <row r="58" spans="1:30" ht="24" customHeight="1">
@@ -3734,10 +3737,10 @@
         <v>46</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
     </row>
     <row r="59" spans="1:30" ht="24" customHeight="1">
@@ -3750,7 +3753,7 @@
     </row>
     <row r="62" spans="1:30" ht="24" customHeight="1">
       <c r="A62" s="9" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="B62" s="9" t="s">
         <v>195</v>
@@ -3761,10 +3764,10 @@
         <v>46</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="C63" s="10" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
     </row>
     <row r="64" spans="1:30" ht="24" customHeight="1">
@@ -3777,23 +3780,23 @@
     </row>
     <row r="68" spans="1:30" ht="24" customHeight="1">
       <c r="A68" s="12" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="B68" s="12" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
     </row>
     <row r="69" spans="1:30" ht="24" customHeight="1">
       <c r="B69" s="13" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
     </row>
     <row r="71" spans="1:30" ht="24" customHeight="1">
       <c r="A71" s="9" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
     </row>
     <row r="72" spans="1:30" ht="24" customHeight="1">
@@ -3801,21 +3804,21 @@
         <v>66</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="C72" s="10" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
     </row>
     <row r="73" spans="1:30" ht="24" customHeight="1">
       <c r="B73" s="11" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="AA73" s="6" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="AB73" s="6" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="AC73" s="6" t="s">
         <v>74</v>
@@ -3823,10 +3826,10 @@
     </row>
     <row r="75" spans="1:30" ht="24" customHeight="1">
       <c r="A75" s="9" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
     </row>
     <row r="76" spans="1:30" ht="24" customHeight="1">
@@ -3834,10 +3837,10 @@
         <v>66</v>
       </c>
       <c r="B76" s="10" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="C76" s="10" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
     </row>
     <row r="77" spans="1:30" ht="24" customHeight="1">
@@ -3846,22 +3849,41 @@
       </c>
     </row>
     <row r="78" spans="1:30" ht="24" customHeight="1">
-      <c r="B78" s="11"/>
+      <c r="B78" s="11" t="s">
+        <v>761</v>
+      </c>
       <c r="AA78" s="6" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="AB78" s="6" t="s">
         <v>69</v>
       </c>
       <c r="AC78" s="6" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="AD78" s="6" t="s">
         <v>74</v>
       </c>
     </row>
+    <row r="79" spans="1:30" ht="24" customHeight="1">
+      <c r="B79" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA79" s="6" t="s">
+        <v>761</v>
+      </c>
+      <c r="AB79" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="AC79" s="6" t="s">
+        <v>762</v>
+      </c>
+      <c r="AD79" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
   </sheetData>
-  <dataValidations count="9">
+  <dataValidations count="10">
     <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B20">
       <formula1>0</formula1>
     </dataValidation>
@@ -3889,6 +3911,9 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B78">
       <formula1>AA78:AD78</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B79">
+      <formula1>AA79:AD79</formula1>
+    </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3910,20 +3935,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>45</v>
@@ -3934,10 +3959,10 @@
         <v>46</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -3945,7 +3970,7 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>56</v>
@@ -3956,10 +3981,10 @@
         <v>46</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
@@ -3972,10 +3997,10 @@
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
@@ -3983,10 +4008,10 @@
         <v>115</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
@@ -3996,7 +4021,7 @@
     </row>
     <row r="17" spans="1:30" ht="24" customHeight="1">
       <c r="A17" s="9" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="B17" s="9" t="s">
         <v>119</v>
@@ -4007,10 +4032,10 @@
         <v>120</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
     </row>
     <row r="19" spans="1:30" ht="24" customHeight="1">
@@ -4018,10 +4043,10 @@
     </row>
     <row r="21" spans="1:30" ht="24" customHeight="1">
       <c r="A21" s="9" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
     </row>
     <row r="22" spans="1:30" ht="24" customHeight="1">
@@ -4029,10 +4054,10 @@
         <v>66</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
     </row>
     <row r="23" spans="1:30" ht="24" customHeight="1">
@@ -4042,16 +4067,16 @@
     </row>
     <row r="24" spans="1:30" ht="24" customHeight="1">
       <c r="B24" s="11" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="AA24" s="6" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="AB24" s="6" t="s">
         <v>69</v>
       </c>
       <c r="AC24" s="6" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="AD24" s="6" t="s">
         <v>74</v>
@@ -4062,13 +4087,13 @@
         <v>69</v>
       </c>
       <c r="AA25" s="6" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="AB25" s="6" t="s">
         <v>69</v>
       </c>
       <c r="AC25" s="6" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="AD25" s="6" t="s">
         <v>74</v>
@@ -4076,10 +4101,10 @@
     </row>
     <row r="27" spans="1:30" ht="24" customHeight="1">
       <c r="A27" s="9" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
     </row>
     <row r="28" spans="1:30" ht="24" customHeight="1">
@@ -4087,10 +4112,10 @@
         <v>46</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
     </row>
     <row r="29" spans="1:30" ht="24" customHeight="1">
@@ -4098,7 +4123,7 @@
     </row>
     <row r="31" spans="1:30" ht="24" customHeight="1">
       <c r="A31" s="9" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="B31" s="9" t="s">
         <v>195</v>
@@ -4109,10 +4134,10 @@
         <v>46</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
     </row>
     <row r="33" spans="1:29" ht="24" customHeight="1">
@@ -4125,23 +4150,23 @@
     </row>
     <row r="37" spans="1:29" ht="24" customHeight="1">
       <c r="A37" s="12" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
     </row>
     <row r="38" spans="1:29" ht="24" customHeight="1">
       <c r="B38" s="13" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
     </row>
     <row r="40" spans="1:29" ht="24" customHeight="1">
       <c r="A40" s="9" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
     </row>
     <row r="41" spans="1:29" ht="24" customHeight="1">
@@ -4149,10 +4174,10 @@
         <v>115</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
     </row>
     <row r="42" spans="1:29" ht="24" customHeight="1">
@@ -4162,7 +4187,7 @@
     </row>
     <row r="44" spans="1:29" ht="24" customHeight="1">
       <c r="A44" s="9" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="B44" s="9" t="s">
         <v>218</v>
@@ -4173,10 +4198,10 @@
         <v>66</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
     </row>
     <row r="46" spans="1:29" ht="24" customHeight="1">
@@ -4187,7 +4212,7 @@
         <v>239</v>
       </c>
       <c r="AB46" s="6" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AC46" s="6" t="s">
         <v>74</v>
@@ -4195,10 +4220,10 @@
     </row>
     <row r="48" spans="1:29" ht="24" customHeight="1">
       <c r="A48" s="9" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
     </row>
     <row r="49" spans="1:30" ht="24" customHeight="1">
@@ -4206,10 +4231,10 @@
         <v>66</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
     </row>
     <row r="50" spans="1:30" ht="24" customHeight="1">
@@ -4219,16 +4244,16 @@
     </row>
     <row r="51" spans="1:30" ht="24" customHeight="1">
       <c r="B51" s="11" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="AA51" s="6" t="s">
+        <v>831</v>
+      </c>
+      <c r="AB51" s="6" t="s">
         <v>830</v>
       </c>
-      <c r="AB51" s="6" t="s">
-        <v>829</v>
-      </c>
       <c r="AC51" s="6" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="AD51" s="6" t="s">
         <v>74</v>
@@ -4236,10 +4261,10 @@
     </row>
     <row r="53" spans="1:30" ht="24" customHeight="1">
       <c r="A53" s="9" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
     </row>
     <row r="54" spans="1:30" ht="24" customHeight="1">
@@ -4247,10 +4272,10 @@
         <v>115</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
     </row>
     <row r="55" spans="1:30" ht="24" customHeight="1">
@@ -4260,10 +4285,10 @@
     </row>
     <row r="57" spans="1:30" ht="24" customHeight="1">
       <c r="A57" s="9" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
     </row>
     <row r="58" spans="1:30" ht="24" customHeight="1">
@@ -4271,10 +4296,10 @@
         <v>115</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
     </row>
     <row r="59" spans="1:30" ht="24" customHeight="1">
@@ -4284,20 +4309,20 @@
     </row>
     <row r="62" spans="1:30" ht="24" customHeight="1">
       <c r="A62" s="12" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="B62" s="12" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
     </row>
     <row r="63" spans="1:30" ht="24" customHeight="1">
       <c r="B63" s="13" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="24" customHeight="1">
       <c r="A65" s="9" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="B65" s="9" t="s">
         <v>61</v>
@@ -4308,10 +4333,10 @@
         <v>46</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="C66" s="10" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="24" customHeight="1">
@@ -5369,7 +5394,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD181"/>
+  <dimension ref="A1:XFD182"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6414,7 +6439,9 @@
       </c>
     </row>
     <row r="181" spans="1:29" ht="24" customHeight="1">
-      <c r="B181" s="11"/>
+      <c r="B181" s="11" t="s">
+        <v>348</v>
+      </c>
       <c r="AA181" s="6" t="s">
         <v>348</v>
       </c>
@@ -6425,8 +6452,22 @@
         <v>74</v>
       </c>
     </row>
+    <row r="182" spans="1:29" ht="24" customHeight="1">
+      <c r="B182" s="11" t="s">
+        <v>350</v>
+      </c>
+      <c r="AA182" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="AB182" s="6" t="s">
+        <v>349</v>
+      </c>
+      <c r="AC182" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
   </sheetData>
-  <dataValidations count="15">
+  <dataValidations count="16">
     <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B19">
       <formula1>0</formula1>
     </dataValidation>
@@ -6472,6 +6513,9 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B181">
       <formula1>AA181:AC181</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B182">
+      <formula1>AA182:AC182</formula1>
+    </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6493,20 +6537,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>45</v>
@@ -6517,10 +6561,10 @@
         <v>46</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -6528,7 +6572,7 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>56</v>
@@ -6539,10 +6583,10 @@
         <v>46</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
@@ -6555,7 +6599,7 @@
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B13" s="9" t="s">
         <v>95</v>
@@ -6566,10 +6610,10 @@
         <v>46</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
@@ -6582,10 +6626,10 @@
     </row>
     <row r="18" spans="1:29" ht="24" customHeight="1">
       <c r="A18" s="9" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="19" spans="1:29" ht="24" customHeight="1">
@@ -6593,10 +6637,10 @@
         <v>120</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="20" spans="1:29" ht="24" customHeight="1">
@@ -6606,10 +6650,10 @@
     </row>
     <row r="22" spans="1:29" ht="24" customHeight="1">
       <c r="A22" s="9" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="23" spans="1:29" ht="24" customHeight="1">
@@ -6617,21 +6661,21 @@
         <v>66</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="24" spans="1:29" ht="24" customHeight="1">
       <c r="B24" s="11" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AA24" s="6" t="s">
         <v>239</v>
       </c>
       <c r="AB24" s="6" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AC24" s="6" t="s">
         <v>74</v>
@@ -6639,10 +6683,10 @@
     </row>
     <row r="26" spans="1:29" ht="24" customHeight="1">
       <c r="A26" s="9" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="27" spans="1:29" ht="24" customHeight="1">
@@ -6650,10 +6694,10 @@
         <v>66</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="28" spans="1:29" ht="24" customHeight="1">
@@ -6664,7 +6708,7 @@
         <v>239</v>
       </c>
       <c r="AB28" s="6" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AC28" s="6" t="s">
         <v>74</v>
@@ -6672,10 +6716,10 @@
     </row>
     <row r="30" spans="1:29" ht="24" customHeight="1">
       <c r="A30" s="9" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="31" spans="1:29" ht="24" customHeight="1">
@@ -6683,10 +6727,10 @@
         <v>66</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="32" spans="1:29" ht="24" customHeight="1">
@@ -6695,7 +6739,7 @@
         <v>239</v>
       </c>
       <c r="AB32" s="6" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AC32" s="6" t="s">
         <v>74</v>
@@ -6703,10 +6747,10 @@
     </row>
     <row r="34" spans="1:29" ht="24" customHeight="1">
       <c r="A34" s="9" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="35" spans="1:29" ht="24" customHeight="1">
@@ -6714,10 +6758,10 @@
         <v>66</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="36" spans="1:29" ht="24" customHeight="1">
@@ -6728,7 +6772,7 @@
         <v>239</v>
       </c>
       <c r="AB36" s="6" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AC36" s="6" t="s">
         <v>74</v>
@@ -6736,10 +6780,10 @@
     </row>
     <row r="38" spans="1:29" ht="24" customHeight="1">
       <c r="A38" s="9" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="39" spans="1:29" ht="24" customHeight="1">
@@ -6747,10 +6791,10 @@
         <v>66</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="40" spans="1:29" ht="24" customHeight="1">
@@ -6761,7 +6805,7 @@
         <v>239</v>
       </c>
       <c r="AB40" s="6" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AC40" s="6" t="s">
         <v>74</v>
@@ -6769,10 +6813,10 @@
     </row>
     <row r="42" spans="1:29" ht="24" customHeight="1">
       <c r="A42" s="9" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="43" spans="1:29" ht="24" customHeight="1">
@@ -6780,10 +6824,10 @@
         <v>66</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="44" spans="1:29" ht="24" customHeight="1">
@@ -6793,13 +6837,13 @@
     </row>
     <row r="45" spans="1:29" ht="24" customHeight="1">
       <c r="B45" s="11" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AA45" s="6" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AB45" s="6" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AC45" s="6" t="s">
         <v>74</v>
@@ -6807,13 +6851,13 @@
     </row>
     <row r="46" spans="1:29" ht="24" customHeight="1">
       <c r="B46" s="11" t="s">
+        <v>394</v>
+      </c>
+      <c r="AA46" s="6" t="s">
         <v>393</v>
       </c>
-      <c r="AA46" s="6" t="s">
-        <v>392</v>
-      </c>
       <c r="AB46" s="6" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AC46" s="6" t="s">
         <v>74</v>
@@ -6821,7 +6865,7 @@
     </row>
     <row r="48" spans="1:29" ht="24" customHeight="1">
       <c r="A48" s="9" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B48" s="9" t="s">
         <v>345</v>
@@ -6832,10 +6876,10 @@
         <v>66</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="50" spans="1:31" ht="24" customHeight="1">
@@ -6845,19 +6889,19 @@
     </row>
     <row r="51" spans="1:31" ht="24" customHeight="1">
       <c r="B51" s="11" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AA51" s="6" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AB51" s="6" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AC51" s="6" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AD51" s="6" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AE51" s="6" t="s">
         <v>74</v>
@@ -6865,19 +6909,19 @@
     </row>
     <row r="52" spans="1:31" ht="24" customHeight="1">
       <c r="B52" s="11" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AA52" s="6" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AB52" s="6" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AC52" s="6" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AD52" s="6" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AE52" s="6" t="s">
         <v>74</v>
@@ -6885,19 +6929,19 @@
     </row>
     <row r="53" spans="1:31" ht="24" customHeight="1">
       <c r="B53" s="11" t="s">
+        <v>400</v>
+      </c>
+      <c r="AA53" s="6" t="s">
         <v>399</v>
       </c>
-      <c r="AA53" s="6" t="s">
-        <v>398</v>
-      </c>
       <c r="AB53" s="6" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AC53" s="6" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AD53" s="6" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AE53" s="6" t="s">
         <v>74</v>
@@ -6905,7 +6949,7 @@
     </row>
     <row r="55" spans="1:31" ht="24" customHeight="1">
       <c r="A55" s="9" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B55" s="9" t="s">
         <v>195</v>
@@ -6916,10 +6960,10 @@
         <v>46</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="57" spans="1:31" ht="24" customHeight="1">
@@ -6932,23 +6976,23 @@
     </row>
     <row r="61" spans="1:31" ht="24" customHeight="1">
       <c r="A61" s="12" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B61" s="12" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="62" spans="1:31" ht="24" customHeight="1">
       <c r="B62" s="13" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="64" spans="1:31" ht="24" customHeight="1">
       <c r="A64" s="9" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="65" spans="1:32" ht="24" customHeight="1">
@@ -6956,10 +7000,10 @@
         <v>66</v>
       </c>
       <c r="B65" s="10" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C65" s="10" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="66" spans="1:32" ht="24" customHeight="1">
@@ -6970,10 +7014,10 @@
         <v>239</v>
       </c>
       <c r="AB66" s="6" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AC66" s="6" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AD66" s="6" t="s">
         <v>74</v>
@@ -6981,7 +7025,7 @@
     </row>
     <row r="68" spans="1:32" ht="24" customHeight="1">
       <c r="A68" s="9" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B68" s="9" t="s">
         <v>243</v>
@@ -6992,10 +7036,10 @@
         <v>66</v>
       </c>
       <c r="B69" s="10" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C69" s="10" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="70" spans="1:32" ht="24" customHeight="1">
@@ -7004,21 +7048,23 @@
       </c>
     </row>
     <row r="71" spans="1:32" ht="24" customHeight="1">
-      <c r="B71" s="11"/>
+      <c r="B71" s="11" t="s">
+        <v>247</v>
+      </c>
       <c r="AA71" s="6" t="s">
         <v>247</v>
       </c>
       <c r="AB71" s="6" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AC71" s="6" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AD71" s="6" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AE71" s="6" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="AF71" s="6" t="s">
         <v>74</v>
@@ -7086,20 +7132,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>45</v>
@@ -7110,10 +7156,10 @@
         <v>46</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -7121,7 +7167,7 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>56</v>
@@ -7132,10 +7178,10 @@
         <v>46</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
@@ -7148,7 +7194,7 @@
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B13" s="9" t="s">
         <v>119</v>
@@ -7159,10 +7205,10 @@
         <v>120</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
@@ -7170,10 +7216,10 @@
     </row>
     <row r="17" spans="1:29" ht="24" customHeight="1">
       <c r="A17" s="9" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="18" spans="1:29" ht="24" customHeight="1">
@@ -7181,10 +7227,10 @@
         <v>115</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="19" spans="1:29" ht="24" customHeight="1">
@@ -7192,7 +7238,7 @@
     </row>
     <row r="21" spans="1:29" ht="24" customHeight="1">
       <c r="A21" s="9" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B21" s="9" t="s">
         <v>95</v>
@@ -7203,10 +7249,10 @@
         <v>46</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="23" spans="1:29" ht="24" customHeight="1">
@@ -7219,10 +7265,10 @@
     </row>
     <row r="26" spans="1:29" ht="24" customHeight="1">
       <c r="A26" s="9" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="27" spans="1:29" ht="24" customHeight="1">
@@ -7230,21 +7276,21 @@
         <v>66</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="28" spans="1:29" ht="24" customHeight="1">
       <c r="B28" s="11" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AA28" s="6" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AB28" s="6" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AC28" s="6" t="s">
         <v>74</v>
@@ -7252,10 +7298,10 @@
     </row>
     <row r="30" spans="1:29" ht="24" customHeight="1">
       <c r="A30" s="9" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="31" spans="1:29" ht="24" customHeight="1">
@@ -7263,10 +7309,10 @@
         <v>66</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="32" spans="1:29" ht="24" customHeight="1">
@@ -7276,19 +7322,19 @@
     </row>
     <row r="33" spans="1:39" ht="24" customHeight="1">
       <c r="B33" s="11" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="AA33" s="6" t="s">
+        <v>451</v>
+      </c>
+      <c r="AB33" s="6" t="s">
+        <v>452</v>
+      </c>
+      <c r="AC33" s="6" t="s">
         <v>450</v>
       </c>
-      <c r="AB33" s="6" t="s">
-        <v>451</v>
-      </c>
-      <c r="AC33" s="6" t="s">
-        <v>449</v>
-      </c>
       <c r="AD33" s="6" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AE33" s="6" t="s">
         <v>89</v>
@@ -7299,19 +7345,19 @@
     </row>
     <row r="34" spans="1:39" ht="24" customHeight="1">
       <c r="B34" s="11" t="s">
+        <v>453</v>
+      </c>
+      <c r="AA34" s="6" t="s">
+        <v>451</v>
+      </c>
+      <c r="AB34" s="6" t="s">
         <v>452</v>
       </c>
-      <c r="AA34" s="6" t="s">
+      <c r="AC34" s="6" t="s">
         <v>450</v>
       </c>
-      <c r="AB34" s="6" t="s">
-        <v>451</v>
-      </c>
-      <c r="AC34" s="6" t="s">
-        <v>449</v>
-      </c>
       <c r="AD34" s="6" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AE34" s="6" t="s">
         <v>89</v>
@@ -7322,19 +7368,19 @@
     </row>
     <row r="35" spans="1:39" ht="24" customHeight="1">
       <c r="B35" s="11" t="s">
+        <v>451</v>
+      </c>
+      <c r="AA35" s="6" t="s">
+        <v>451</v>
+      </c>
+      <c r="AB35" s="6" t="s">
+        <v>452</v>
+      </c>
+      <c r="AC35" s="6" t="s">
         <v>450</v>
       </c>
-      <c r="AA35" s="6" t="s">
-        <v>450</v>
-      </c>
-      <c r="AB35" s="6" t="s">
-        <v>451</v>
-      </c>
-      <c r="AC35" s="6" t="s">
-        <v>449</v>
-      </c>
       <c r="AD35" s="6" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AE35" s="6" t="s">
         <v>89</v>
@@ -7345,19 +7391,19 @@
     </row>
     <row r="36" spans="1:39" ht="24" customHeight="1">
       <c r="B36" s="11" t="s">
+        <v>452</v>
+      </c>
+      <c r="AA36" s="6" t="s">
         <v>451</v>
       </c>
-      <c r="AA36" s="6" t="s">
+      <c r="AB36" s="6" t="s">
+        <v>452</v>
+      </c>
+      <c r="AC36" s="6" t="s">
         <v>450</v>
       </c>
-      <c r="AB36" s="6" t="s">
-        <v>451</v>
-      </c>
-      <c r="AC36" s="6" t="s">
-        <v>449</v>
-      </c>
       <c r="AD36" s="6" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AE36" s="6" t="s">
         <v>89</v>
@@ -7371,16 +7417,16 @@
         <v>89</v>
       </c>
       <c r="AA37" s="6" t="s">
+        <v>451</v>
+      </c>
+      <c r="AB37" s="6" t="s">
+        <v>452</v>
+      </c>
+      <c r="AC37" s="6" t="s">
         <v>450</v>
       </c>
-      <c r="AB37" s="6" t="s">
-        <v>451</v>
-      </c>
-      <c r="AC37" s="6" t="s">
-        <v>449</v>
-      </c>
       <c r="AD37" s="6" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AE37" s="6" t="s">
         <v>89</v>
@@ -7391,10 +7437,10 @@
     </row>
     <row r="39" spans="1:39" ht="24" customHeight="1">
       <c r="A39" s="9" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="40" spans="1:39" ht="24" customHeight="1">
@@ -7402,10 +7448,10 @@
         <v>66</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="41" spans="1:39" ht="24" customHeight="1">
@@ -7416,40 +7462,40 @@
     <row r="42" spans="1:39" ht="24" customHeight="1">
       <c r="B42" s="11"/>
       <c r="AA42" s="6" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AB42" s="6" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AC42" s="6" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AD42" s="6" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AE42" s="6" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="AF42" s="6" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="AG42" s="6" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="AH42" s="6" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="AI42" s="6" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AJ42" s="6" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="AK42" s="6" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="AL42" s="6" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="AM42" s="6" t="s">
         <v>74</v>
@@ -7457,10 +7503,10 @@
     </row>
     <row r="44" spans="1:39" ht="24" customHeight="1">
       <c r="A44" s="9" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="45" spans="1:39" ht="24" customHeight="1">
@@ -7468,24 +7514,24 @@
         <v>66</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="46" spans="1:39" ht="24" customHeight="1">
       <c r="B46" s="11" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="AA46" s="6" t="s">
+        <v>475</v>
+      </c>
+      <c r="AB46" s="6" t="s">
+        <v>476</v>
+      </c>
+      <c r="AC46" s="6" t="s">
         <v>474</v>
-      </c>
-      <c r="AB46" s="6" t="s">
-        <v>475</v>
-      </c>
-      <c r="AC46" s="6" t="s">
-        <v>473</v>
       </c>
       <c r="AD46" s="6" t="s">
         <v>74</v>
@@ -7493,10 +7539,10 @@
     </row>
     <row r="48" spans="1:39" ht="24" customHeight="1">
       <c r="A48" s="9" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="49" spans="1:29" ht="24" customHeight="1">
@@ -7504,10 +7550,10 @@
         <v>46</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="50" spans="1:29" ht="24" customHeight="1">
@@ -7515,10 +7561,10 @@
     </row>
     <row r="52" spans="1:29" ht="24" customHeight="1">
       <c r="A52" s="9" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="53" spans="1:29" ht="24" customHeight="1">
@@ -7526,10 +7572,10 @@
         <v>115</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="54" spans="1:29" ht="24" customHeight="1">
@@ -7539,10 +7585,10 @@
     </row>
     <row r="56" spans="1:29" ht="24" customHeight="1">
       <c r="A56" s="9" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="57" spans="1:29" ht="24" customHeight="1">
@@ -7550,10 +7596,10 @@
         <v>66</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="C57" s="10" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="58" spans="1:29" ht="24" customHeight="1">
@@ -7564,7 +7610,7 @@
         <v>239</v>
       </c>
       <c r="AB58" s="6" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="AC58" s="6" t="s">
         <v>74</v>
@@ -7572,10 +7618,10 @@
     </row>
     <row r="60" spans="1:29" ht="24" customHeight="1">
       <c r="A60" s="9" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="61" spans="1:29" ht="24" customHeight="1">
@@ -7583,10 +7629,10 @@
         <v>46</v>
       </c>
       <c r="B61" s="10" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="C61" s="10" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="62" spans="1:29" ht="24" customHeight="1">
@@ -7599,10 +7645,10 @@
     </row>
     <row r="65" spans="1:30" ht="24" customHeight="1">
       <c r="A65" s="9" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="66" spans="1:30" ht="24" customHeight="1">
@@ -7610,10 +7656,10 @@
         <v>66</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C66" s="10" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="67" spans="1:30" ht="24" customHeight="1">
@@ -7621,13 +7667,13 @@
         <v>239</v>
       </c>
       <c r="AA67" s="6" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AB67" s="6" t="s">
         <v>239</v>
       </c>
       <c r="AC67" s="6" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AD67" s="6" t="s">
         <v>74</v>
@@ -7635,10 +7681,10 @@
     </row>
     <row r="69" spans="1:30" ht="24" customHeight="1">
       <c r="A69" s="9" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B69" s="9" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="70" spans="1:30" ht="24" customHeight="1">
@@ -7646,10 +7692,10 @@
         <v>46</v>
       </c>
       <c r="B70" s="10" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C70" s="10" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="71" spans="1:30" ht="24" customHeight="1">
@@ -7662,10 +7708,10 @@
     </row>
     <row r="74" spans="1:30" ht="24" customHeight="1">
       <c r="A74" s="9" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B74" s="9" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="75" spans="1:30" ht="24" customHeight="1">
@@ -7673,10 +7719,10 @@
         <v>66</v>
       </c>
       <c r="B75" s="10" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C75" s="10" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="76" spans="1:30" ht="24" customHeight="1">
@@ -7687,7 +7733,7 @@
         <v>239</v>
       </c>
       <c r="AB76" s="6" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AC76" s="6" t="s">
         <v>74</v>
@@ -7695,10 +7741,10 @@
     </row>
     <row r="78" spans="1:30" ht="24" customHeight="1">
       <c r="A78" s="9" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="B78" s="9" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="79" spans="1:30" ht="24" customHeight="1">
@@ -7706,10 +7752,10 @@
         <v>46</v>
       </c>
       <c r="B79" s="10" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="C79" s="10" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="80" spans="1:30" ht="24" customHeight="1">
@@ -7722,10 +7768,10 @@
     </row>
     <row r="83" spans="1:32" ht="24" customHeight="1">
       <c r="A83" s="9" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B83" s="9" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="84" spans="1:32" ht="24" customHeight="1">
@@ -7733,10 +7779,10 @@
         <v>66</v>
       </c>
       <c r="B84" s="10" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="C84" s="10" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="85" spans="1:32" ht="24" customHeight="1">
@@ -7745,7 +7791,7 @@
         <v>239</v>
       </c>
       <c r="AB85" s="6" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AC85" s="6" t="s">
         <v>74</v>
@@ -7753,10 +7799,10 @@
     </row>
     <row r="87" spans="1:32" ht="24" customHeight="1">
       <c r="A87" s="9" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B87" s="9" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="88" spans="1:32" ht="24" customHeight="1">
@@ -7764,10 +7810,10 @@
         <v>46</v>
       </c>
       <c r="B88" s="10" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="C88" s="10" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="89" spans="1:32" ht="24" customHeight="1">
@@ -7780,10 +7826,10 @@
     </row>
     <row r="92" spans="1:32" ht="24" customHeight="1">
       <c r="A92" s="9" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="B92" s="9" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="93" spans="1:32" ht="24" customHeight="1">
@@ -7791,10 +7837,10 @@
         <v>66</v>
       </c>
       <c r="B93" s="10" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="C93" s="10" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="94" spans="1:32" ht="24" customHeight="1">
@@ -7804,22 +7850,22 @@
     </row>
     <row r="95" spans="1:32" ht="24" customHeight="1">
       <c r="B95" s="11" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="AA95" s="6" t="s">
+        <v>523</v>
+      </c>
+      <c r="AB95" s="6" t="s">
+        <v>382</v>
+      </c>
+      <c r="AC95" s="6" t="s">
+        <v>524</v>
+      </c>
+      <c r="AD95" s="6" t="s">
         <v>522</v>
       </c>
-      <c r="AB95" s="6" t="s">
-        <v>381</v>
-      </c>
-      <c r="AC95" s="6" t="s">
-        <v>523</v>
-      </c>
-      <c r="AD95" s="6" t="s">
-        <v>521</v>
-      </c>
       <c r="AE95" s="6" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="AF95" s="6" t="s">
         <v>74</v>
@@ -7827,22 +7873,22 @@
     </row>
     <row r="96" spans="1:32" ht="24" customHeight="1">
       <c r="B96" s="11" t="s">
+        <v>523</v>
+      </c>
+      <c r="AA96" s="6" t="s">
+        <v>523</v>
+      </c>
+      <c r="AB96" s="6" t="s">
+        <v>382</v>
+      </c>
+      <c r="AC96" s="6" t="s">
+        <v>524</v>
+      </c>
+      <c r="AD96" s="6" t="s">
         <v>522</v>
       </c>
-      <c r="AA96" s="6" t="s">
-        <v>522</v>
-      </c>
-      <c r="AB96" s="6" t="s">
-        <v>381</v>
-      </c>
-      <c r="AC96" s="6" t="s">
-        <v>523</v>
-      </c>
-      <c r="AD96" s="6" t="s">
-        <v>521</v>
-      </c>
       <c r="AE96" s="6" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="AF96" s="6" t="s">
         <v>74</v>
@@ -7850,22 +7896,22 @@
     </row>
     <row r="97" spans="1:32" ht="24" customHeight="1">
       <c r="B97" s="11" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AA97" s="6" t="s">
+        <v>523</v>
+      </c>
+      <c r="AB97" s="6" t="s">
+        <v>382</v>
+      </c>
+      <c r="AC97" s="6" t="s">
+        <v>524</v>
+      </c>
+      <c r="AD97" s="6" t="s">
         <v>522</v>
       </c>
-      <c r="AB97" s="6" t="s">
-        <v>381</v>
-      </c>
-      <c r="AC97" s="6" t="s">
-        <v>523</v>
-      </c>
-      <c r="AD97" s="6" t="s">
-        <v>521</v>
-      </c>
       <c r="AE97" s="6" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="AF97" s="6" t="s">
         <v>74</v>
@@ -7873,22 +7919,22 @@
     </row>
     <row r="98" spans="1:32" ht="24" customHeight="1">
       <c r="B98" s="11" t="s">
+        <v>524</v>
+      </c>
+      <c r="AA98" s="6" t="s">
         <v>523</v>
       </c>
-      <c r="AA98" s="6" t="s">
+      <c r="AB98" s="6" t="s">
+        <v>382</v>
+      </c>
+      <c r="AC98" s="6" t="s">
+        <v>524</v>
+      </c>
+      <c r="AD98" s="6" t="s">
         <v>522</v>
       </c>
-      <c r="AB98" s="6" t="s">
-        <v>381</v>
-      </c>
-      <c r="AC98" s="6" t="s">
-        <v>523</v>
-      </c>
-      <c r="AD98" s="6" t="s">
-        <v>521</v>
-      </c>
       <c r="AE98" s="6" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="AF98" s="6" t="s">
         <v>74</v>
@@ -7896,10 +7942,10 @@
     </row>
     <row r="100" spans="1:32" ht="24" customHeight="1">
       <c r="A100" s="9" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="B100" s="9" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="101" spans="1:32" ht="24" customHeight="1">
@@ -7907,10 +7953,10 @@
         <v>46</v>
       </c>
       <c r="B101" s="10" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="C101" s="10" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="102" spans="1:32" ht="24" customHeight="1">
@@ -7923,7 +7969,7 @@
     </row>
     <row r="105" spans="1:32" ht="24" customHeight="1">
       <c r="A105" s="9" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B105" s="9" t="s">
         <v>195</v>
@@ -7934,10 +7980,10 @@
         <v>46</v>
       </c>
       <c r="B106" s="10" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="C106" s="10" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="107" spans="1:32" ht="24" customHeight="1">
@@ -8028,20 +8074,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>45</v>
@@ -8052,10 +8098,10 @@
         <v>46</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -8063,7 +8109,7 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>56</v>
@@ -8074,10 +8120,10 @@
         <v>46</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
@@ -8090,7 +8136,7 @@
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="B13" s="9" t="s">
         <v>95</v>
@@ -8101,10 +8147,10 @@
         <v>46</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
@@ -8117,10 +8163,10 @@
     </row>
     <row r="18" spans="1:31" ht="24" customHeight="1">
       <c r="A18" s="9" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="19" spans="1:31" ht="24" customHeight="1">
@@ -8128,10 +8174,10 @@
         <v>120</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="20" spans="1:31" ht="24" customHeight="1">
@@ -8141,10 +8187,10 @@
     </row>
     <row r="22" spans="1:31" ht="24" customHeight="1">
       <c r="A22" s="9" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="23" spans="1:31" ht="24" customHeight="1">
@@ -8152,10 +8198,10 @@
         <v>66</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="24" spans="1:31" ht="24" customHeight="1">
@@ -8165,19 +8211,19 @@
     </row>
     <row r="25" spans="1:31" ht="24" customHeight="1">
       <c r="B25" s="11" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="AA25" s="6" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="AB25" s="6" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="AC25" s="6" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="AD25" s="6" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="AE25" s="6" t="s">
         <v>74</v>
@@ -8185,7 +8231,7 @@
     </row>
     <row r="27" spans="1:31" ht="24" customHeight="1">
       <c r="A27" s="9" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="B27" s="9" t="s">
         <v>345</v>
@@ -8196,10 +8242,10 @@
         <v>66</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="29" spans="1:31" ht="24" customHeight="1">
@@ -8208,9 +8254,11 @@
       </c>
     </row>
     <row r="30" spans="1:31" ht="24" customHeight="1">
-      <c r="B30" s="11"/>
+      <c r="B30" s="11" t="s">
+        <v>561</v>
+      </c>
       <c r="AA30" s="6" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="AB30" s="6" t="s">
         <v>74</v>
@@ -8248,20 +8296,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>45</v>
@@ -8272,10 +8320,10 @@
         <v>46</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -8283,7 +8331,7 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>56</v>
@@ -8294,10 +8342,10 @@
         <v>46</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
@@ -8310,7 +8358,7 @@
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="B13" s="9" t="s">
         <v>95</v>
@@ -8321,10 +8369,10 @@
         <v>46</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
@@ -8337,7 +8385,7 @@
     </row>
     <row r="18" spans="1:30" ht="24" customHeight="1">
       <c r="A18" s="9" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="B18" s="9" t="s">
         <v>119</v>
@@ -8348,10 +8396,10 @@
         <v>120</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="20" spans="1:30" ht="24" customHeight="1">
@@ -8359,10 +8407,10 @@
     </row>
     <row r="22" spans="1:30" ht="24" customHeight="1">
       <c r="A22" s="9" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="23" spans="1:30" ht="24" customHeight="1">
@@ -8370,10 +8418,10 @@
         <v>66</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="24" spans="1:30" ht="24" customHeight="1">
@@ -8384,13 +8432,13 @@
     <row r="25" spans="1:30" ht="24" customHeight="1">
       <c r="B25" s="11"/>
       <c r="AA25" s="6" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="AB25" s="6" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="AC25" s="6" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="AD25" s="6" t="s">
         <v>74</v>
@@ -8398,7 +8446,7 @@
     </row>
     <row r="27" spans="1:30" ht="24" customHeight="1">
       <c r="A27" s="9" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="B27" s="9" t="s">
         <v>195</v>
@@ -8409,10 +8457,10 @@
         <v>46</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
     <row r="29" spans="1:30" ht="24" customHeight="1">
@@ -8425,23 +8473,23 @@
     </row>
     <row r="33" spans="1:3" ht="24" customHeight="1">
       <c r="A33" s="12" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="24" customHeight="1">
       <c r="B34" s="13" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="24" customHeight="1">
       <c r="A36" s="9" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="24" customHeight="1">
@@ -8449,10 +8497,10 @@
         <v>120</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="24" customHeight="1">
@@ -8462,10 +8510,10 @@
     </row>
     <row r="40" spans="1:3" ht="24" customHeight="1">
       <c r="A40" s="9" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="24" customHeight="1">
@@ -8473,10 +8521,10 @@
         <v>46</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="24" customHeight="1">
@@ -8486,15 +8534,15 @@
     </row>
     <row r="43" spans="1:3" ht="24" customHeight="1">
       <c r="B43" s="11" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="24" customHeight="1">
       <c r="A45" s="9" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="24" customHeight="1">
@@ -8502,10 +8550,10 @@
         <v>46</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="24" customHeight="1">
@@ -8518,20 +8566,20 @@
     </row>
     <row r="51" spans="1:3" ht="24" customHeight="1">
       <c r="A51" s="12" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="B51" s="12" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="24" customHeight="1">
       <c r="B52" s="13" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="24" customHeight="1">
       <c r="A54" s="9" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="B54" s="9" t="s">
         <v>286</v>
@@ -8542,10 +8590,10 @@
         <v>46</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="24" customHeight="1">
@@ -8558,23 +8606,23 @@
     </row>
     <row r="60" spans="1:3" ht="24" customHeight="1">
       <c r="A60" s="12" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="B60" s="12" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="24" customHeight="1">
       <c r="B61" s="13" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="24" customHeight="1">
       <c r="A63" s="9" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="24" customHeight="1">
@@ -8582,10 +8630,10 @@
         <v>46</v>
       </c>
       <c r="B64" s="10" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="C64" s="10" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="24" customHeight="1">
@@ -8598,10 +8646,10 @@
     </row>
     <row r="68" spans="1:3" ht="24" customHeight="1">
       <c r="A68" s="9" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="24" customHeight="1">
@@ -8609,10 +8657,10 @@
         <v>46</v>
       </c>
       <c r="B69" s="10" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="C69" s="10" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="24" customHeight="1">
@@ -8625,20 +8673,20 @@
     </row>
     <row r="74" spans="1:3" ht="24" customHeight="1">
       <c r="A74" s="12" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="B74" s="12" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="24" customHeight="1">
       <c r="B75" s="13" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="24" customHeight="1">
       <c r="A77" s="9" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="B77" s="9" t="s">
         <v>286</v>
@@ -8649,10 +8697,10 @@
         <v>46</v>
       </c>
       <c r="B78" s="10" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="C78" s="10" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="24" customHeight="1">
@@ -8665,10 +8713,10 @@
     </row>
     <row r="82" spans="1:31" ht="24" customHeight="1">
       <c r="A82" s="9" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="B82" s="9" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
     </row>
     <row r="83" spans="1:31" ht="24" customHeight="1">
@@ -8676,27 +8724,27 @@
         <v>66</v>
       </c>
       <c r="B83" s="10" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="C83" s="10" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
     </row>
     <row r="84" spans="1:31" ht="24" customHeight="1">
       <c r="B84" s="11" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="AA84" s="6" t="s">
+        <v>631</v>
+      </c>
+      <c r="AB84" s="6" t="s">
+        <v>632</v>
+      </c>
+      <c r="AC84" s="6" t="s">
         <v>630</v>
       </c>
-      <c r="AB84" s="6" t="s">
-        <v>631</v>
-      </c>
-      <c r="AC84" s="6" t="s">
-        <v>629</v>
-      </c>
       <c r="AD84" s="6" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="AE84" s="6" t="s">
         <v>74</v>
@@ -8704,10 +8752,10 @@
     </row>
     <row r="86" spans="1:31" ht="24" customHeight="1">
       <c r="A86" s="9" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="B86" s="9" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
     </row>
     <row r="87" spans="1:31" ht="24" customHeight="1">
@@ -8715,27 +8763,27 @@
         <v>66</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="C87" s="10" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
     </row>
     <row r="88" spans="1:31" ht="24" customHeight="1">
       <c r="B88" s="11" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="AA88" s="6" t="s">
+        <v>639</v>
+      </c>
+      <c r="AB88" s="6" t="s">
+        <v>640</v>
+      </c>
+      <c r="AC88" s="6" t="s">
         <v>638</v>
       </c>
-      <c r="AB88" s="6" t="s">
-        <v>639</v>
-      </c>
-      <c r="AC88" s="6" t="s">
-        <v>637</v>
-      </c>
       <c r="AD88" s="6" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="AE88" s="6" t="s">
         <v>74</v>
@@ -8743,20 +8791,20 @@
     </row>
     <row r="91" spans="1:31" ht="24" customHeight="1">
       <c r="A91" s="12" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="B91" s="12" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
     </row>
     <row r="92" spans="1:31" ht="24" customHeight="1">
       <c r="B92" s="13" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="94" spans="1:31" ht="24" customHeight="1">
       <c r="A94" s="9" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="B94" s="9" t="s">
         <v>286</v>
@@ -8767,10 +8815,10 @@
         <v>46</v>
       </c>
       <c r="B95" s="10" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="C95" s="10" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
     </row>
     <row r="96" spans="1:31" ht="24" customHeight="1">
@@ -8778,20 +8826,20 @@
     </row>
     <row r="99" spans="1:3" ht="24" customHeight="1">
       <c r="A99" s="12" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="B99" s="12" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="24" customHeight="1">
       <c r="B100" s="13" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="24" customHeight="1">
       <c r="A102" s="9" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="B102" s="9" t="s">
         <v>286</v>
@@ -8802,10 +8850,10 @@
         <v>46</v>
       </c>
       <c r="B103" s="10" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="C103" s="10" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="24" customHeight="1">
@@ -8813,23 +8861,23 @@
     </row>
     <row r="107" spans="1:3" ht="24" customHeight="1">
       <c r="A107" s="12" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="B107" s="12" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="24" customHeight="1">
       <c r="B108" s="13" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="24" customHeight="1">
       <c r="A110" s="9" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="B110" s="9" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="24" customHeight="1">
@@ -8837,10 +8885,10 @@
         <v>120</v>
       </c>
       <c r="B111" s="10" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="C111" s="10" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="24" customHeight="1">
@@ -8848,10 +8896,10 @@
     </row>
     <row r="114" spans="1:3" ht="24" customHeight="1">
       <c r="A114" s="9" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="B114" s="9" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="24" customHeight="1">
@@ -8859,10 +8907,10 @@
         <v>46</v>
       </c>
       <c r="B115" s="10" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="C115" s="10" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="24" customHeight="1">
@@ -8875,10 +8923,10 @@
     </row>
     <row r="119" spans="1:3" ht="24" customHeight="1">
       <c r="A119" s="9" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="B119" s="9" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="24" customHeight="1">
@@ -8886,10 +8934,10 @@
         <v>46</v>
       </c>
       <c r="B120" s="10" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="C120" s="10" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="24" customHeight="1">
@@ -8902,7 +8950,7 @@
     </row>
     <row r="124" spans="1:3" ht="24" customHeight="1">
       <c r="A124" s="9" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="B124" s="9" t="s">
         <v>286</v>
@@ -8913,10 +8961,10 @@
         <v>46</v>
       </c>
       <c r="B125" s="10" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="C125" s="10" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="24" customHeight="1">
@@ -8929,23 +8977,23 @@
     </row>
     <row r="130" spans="1:3" ht="24" customHeight="1">
       <c r="A130" s="12" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="B130" s="12" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="24" customHeight="1">
       <c r="B131" s="13" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
     </row>
     <row r="133" spans="1:3" ht="24" customHeight="1">
       <c r="A133" s="9" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="B133" s="9" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
     </row>
     <row r="134" spans="1:3" ht="24" customHeight="1">
@@ -8953,10 +9001,10 @@
         <v>120</v>
       </c>
       <c r="B134" s="10" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="C134" s="10" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
     </row>
     <row r="135" spans="1:3" ht="24" customHeight="1">
@@ -8964,10 +9012,10 @@
     </row>
     <row r="137" spans="1:3" ht="24" customHeight="1">
       <c r="A137" s="9" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="B137" s="9" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
     </row>
     <row r="138" spans="1:3" ht="24" customHeight="1">
@@ -8975,10 +9023,10 @@
         <v>46</v>
       </c>
       <c r="B138" s="10" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="C138" s="10" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
     </row>
     <row r="139" spans="1:3" ht="24" customHeight="1">
@@ -8988,15 +9036,15 @@
     </row>
     <row r="140" spans="1:3" ht="24" customHeight="1">
       <c r="B140" s="11" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
     </row>
     <row r="142" spans="1:3" ht="24" customHeight="1">
       <c r="A142" s="9" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="B142" s="9" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
     </row>
     <row r="143" spans="1:3" ht="24" customHeight="1">
@@ -9004,10 +9052,10 @@
         <v>46</v>
       </c>
       <c r="B143" s="10" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="C143" s="10" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
     </row>
     <row r="144" spans="1:3" ht="24" customHeight="1">
@@ -9020,7 +9068,7 @@
     </row>
     <row r="147" spans="1:3" ht="24" customHeight="1">
       <c r="A147" s="9" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="B147" s="9" t="s">
         <v>286</v>
@@ -9031,10 +9079,10 @@
         <v>46</v>
       </c>
       <c r="B148" s="10" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="C148" s="10" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
     </row>
     <row r="149" spans="1:3" ht="24" customHeight="1">
@@ -9047,23 +9095,23 @@
     </row>
     <row r="153" spans="1:3" ht="24" customHeight="1">
       <c r="A153" s="12" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="B153" s="12" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
     </row>
     <row r="154" spans="1:3" ht="24" customHeight="1">
       <c r="B154" s="13" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
     </row>
     <row r="156" spans="1:3" ht="24" customHeight="1">
       <c r="A156" s="9" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="B156" s="9" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
     </row>
     <row r="157" spans="1:3" ht="24" customHeight="1">
@@ -9071,10 +9119,10 @@
         <v>115</v>
       </c>
       <c r="B157" s="10" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="C157" s="10" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
     </row>
     <row r="158" spans="1:3" ht="24" customHeight="1">
@@ -9082,10 +9130,10 @@
     </row>
     <row r="160" spans="1:3" ht="24" customHeight="1">
       <c r="A160" s="9" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="B160" s="9" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
     </row>
     <row r="161" spans="1:3" ht="24" customHeight="1">
@@ -9093,10 +9141,10 @@
         <v>46</v>
       </c>
       <c r="B161" s="10" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="C161" s="10" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
     </row>
     <row r="162" spans="1:3" ht="24" customHeight="1">
@@ -9106,15 +9154,15 @@
     </row>
     <row r="163" spans="1:3" ht="24" customHeight="1">
       <c r="B163" s="11" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
     </row>
     <row r="165" spans="1:3" ht="24" customHeight="1">
       <c r="A165" s="9" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="B165" s="9" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
     </row>
     <row r="166" spans="1:3" ht="24" customHeight="1">
@@ -9122,10 +9170,10 @@
         <v>46</v>
       </c>
       <c r="B166" s="10" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="C166" s="10" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
     </row>
     <row r="167" spans="1:3" ht="24" customHeight="1">
@@ -9138,10 +9186,10 @@
     </row>
     <row r="170" spans="1:3" ht="24" customHeight="1">
       <c r="A170" s="9" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="B170" s="9" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
     </row>
     <row r="171" spans="1:3" ht="24" customHeight="1">
@@ -9149,10 +9197,10 @@
         <v>46</v>
       </c>
       <c r="B171" s="10" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="C171" s="10" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
     </row>
     <row r="172" spans="1:3" ht="24" customHeight="1">

--- a/cmip6/models/gfdl-am4/cmip6_noaa-gfdl_gfdl-am4_land.xlsx
+++ b/cmip6/models/gfdl-am4/cmip6_noaa-gfdl_gfdl-am4_land.xlsx
@@ -876,10 +876,10 @@
     <t>cmip6.land.soil.hydrology.lateral_connectivity</t>
   </si>
   <si>
-    <t>Perfect connectivity</t>
-  </si>
-  <si>
-    <t>Darcian flow</t>
+    <t>Perfect connectivity: Common soil for multiple tiles</t>
+  </si>
+  <si>
+    <t>Darcian flow: Darcian flow among hillslope tiles</t>
   </si>
   <si>
     <t>3.4.1.7 *</t>
